--- a/medicine/Psychotrope/Hapkin/Hapkin.xlsx
+++ b/medicine/Psychotrope/Hapkin/Hapkin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Hapkin est une bière spéciale belge brassée par Alken-Maes, filiale d'Heineken.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bière spéciale a été créée en 1982 par la brasserie Louwaege qui était implantée à Kortemark (province de Flandre occidentale). Cette brasserie est rachetée par le groupe Alken-Maes puis fermée en 2002. La production de la Hapkin s'est poursuivie à la brasserie de l'Union située à Jumet (province du Hainaut), cette brasserie étant aussi sous le giron d'Alken-Maes. En 2007, la brasserie de l'Union ferme à son tour mais la production de la Hapkin est maintenue au sein de la brasserie Alken-Maes à Alken.
 La bière doit son nom au comte Baudouin VII de Flandre (mort en 1119) dont le surnom était Baudouin à la Hache ou Hapkin car son arme de prédilection lors des combats était la hache.
@@ -545,7 +559,9 @@
           <t>Bière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Hapkin est une bière blonde claire de fermentation haute refermentée en bouteille titrant 8,5 % en volume d'alcool.
 </t>
